--- a/ems/document/仓库报表/修改后入-领-借报表.xlsx
+++ b/ems/document/仓库报表/修改后入-领-借报表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="13815" windowHeight="7455" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="13815" windowHeight="7395"/>
   </bookViews>
   <sheets>
     <sheet name="入库明细" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="60">
   <si>
     <t>序号</t>
   </si>
@@ -134,10 +134,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>入库类型:是采购入库，还是调拨入库，还是拆回入库之类的</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -197,6 +193,107 @@
     <t>设备去向</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>日期：指的是领出去的日期，还是正式领用的日期，日期范围是同个道理</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>别忘记加上借用中领用掉的设备，还有仓库之间的领用要算在里面吗</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>同理仓库间的领用是不能算到项目里面的</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>同理仓库之间的借用数据没有算在里面</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">from ems_adjust a </t>
+  </si>
+  <si>
+    <t>inner join ems_adjustlist b on a.id=b.adjust_id</t>
+  </si>
+  <si>
+    <t>inner join ems_store c on a.str_in_id=c.id</t>
+  </si>
+  <si>
+    <t>where  a.adjusttype='installout' and a.status='over'</t>
+  </si>
+  <si>
+    <t>and to_char(a.str_in_date,'yyyy-mm-dd')&gt;='2015-07-10'  and to_char(a.str_in_date,'yyyy-mm-dd')&lt;='2015-07-18'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from ems_installout a </t>
+  </si>
+  <si>
+    <t>inner join ems_installoutlist b on a.id=b.installout_id</t>
+  </si>
+  <si>
+    <t>inner join ems_workunit c on a.workunit_id=c.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">where  b. installoutlisttype='borrow' </t>
+  </si>
+  <si>
+    <t>and to_char(a.operatedate,'yyyy-mm-dd')&gt;='2015-07-10'  and to_char(a.operatedate,'yyyy-mm-dd')&lt;='2015-07-18'</t>
+  </si>
+  <si>
+    <t>union all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from ems_borrow a </t>
+  </si>
+  <si>
+    <t>inner join ems_borrowlist b on a.id=b.borrow_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">where  b. borrowlisttype='borrow' </t>
+  </si>
+  <si>
+    <t>select a.id as installout_id,'' as project_id,a.str_out_date as operatedate,b.ecode,a.str_out_id as store_id,c.name as workunit_name,decode(b.isreturn,'Y','已归还','未归还') as status,'调拨' as installouttype</t>
+  </si>
+  <si>
+    <t>where  a.adjusttype='borrow' --and a.status='over'</t>
+  </si>
+  <si>
+    <t>and to_char(a.str_out_date,'yyyy-mm-dd')&gt;='2015-07-10'  and to_char(a.str_out_date,'yyyy-mm-dd')&lt;='2015-07-18'</t>
+  </si>
+  <si>
+    <t>select a.id as borrow_id,a.project_id,a.operatedate,b.ecode,a.store_id,c.name as workunit_name,decode(b.isreturn,'Y','已归还','未归还') as status,'领' as installouttype</t>
+  </si>
+  <si>
+    <t>select a.id as borrow_id,a.project_id,a.operatedate,b.ecode,a.store_id,c.name as workunit_name,decode(b.isreturn,'Y','已归还','未归还') as status,'借' as installouttype</t>
+  </si>
+  <si>
+    <t>入库仓库</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>select a.id as installout_id,'' as project_id,a.str_in_date as returndate,b.ecode,a.str_out_id,c.name as workunit_name,'' as pole_name,'' as customer_id,'调拨' as installouttype</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果没选项目的话，在报表里在显示加一例，哪个项目(做不到，采购入库，调拨，拆回入库是没有项目的)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库类型:是采购入库，还是调拨入库，还是拆回入库之类的，还有借用返还(包括领用里的借用返还)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -205,7 +302,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,6 +387,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -374,7 +479,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -426,6 +531,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -740,13 +854,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -754,25 +868,27 @@
     <col min="1" max="1" width="5.875" customWidth="1"/>
     <col min="6" max="6" width="9.5" customWidth="1"/>
     <col min="7" max="7" width="12.75" customWidth="1"/>
-    <col min="11" max="11" width="10.75" customWidth="1"/>
+    <col min="13" max="13" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:13" ht="14.25">
+      <c r="A1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-    </row>
-    <row r="2" spans="1:11" ht="14.25">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+    </row>
+    <row r="2" spans="1:13" ht="14.25">
       <c r="A2" s="16" t="s">
         <v>10</v>
       </c>
@@ -783,13 +899,15 @@
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -815,16 +933,22 @@
         <v>3</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="11" customFormat="1">
+    <row r="4" spans="1:13" s="11" customFormat="1">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -833,11 +957,13 @@
       <c r="F4" s="4"/>
       <c r="G4" s="9"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -846,11 +972,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="9"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -859,11 +987,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="9"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -872,11 +1002,13 @@
       <c r="F7" s="4"/>
       <c r="G7" s="9"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -885,11 +1017,13 @@
       <c r="F8" s="4"/>
       <c r="G8" s="9"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -898,11 +1032,13 @@
       <c r="F9" s="4"/>
       <c r="G9" s="9"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -911,11 +1047,13 @@
       <c r="F10" s="4"/>
       <c r="G10" s="9"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -924,39 +1062,44 @@
       <c r="F11" s="4"/>
       <c r="G11" s="9"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="19"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" t="s">
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" s="11" customFormat="1"/>
-    <row r="27" s="11" customFormat="1"/>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" s="11" customFormat="1"/>
+    <row r="28" spans="1:1" s="11" customFormat="1"/>
   </sheetData>
   <protectedRanges>
     <protectedRange password="C66D" sqref="G4:G11" name="区域1_13_7"/>
     <protectedRange password="C66D" sqref="F4:F11" name="区域1_13_10"/>
   </protectedRanges>
   <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A1:M1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -967,32 +1110,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:15" ht="14.25">
+      <c r="A1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-    </row>
-    <row r="2" spans="1:13" ht="14.25">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+    </row>
+    <row r="2" spans="1:15" ht="14.25">
       <c r="A2" s="16" t="s">
         <v>10</v>
       </c>
@@ -1003,15 +1148,17 @@
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="17"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
+      <c r="L2" s="17"/>
       <c r="M2" s="13"/>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1037,22 +1184,28 @@
         <v>3</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="8" t="s">
+      <c r="N3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:15">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -1061,13 +1214,15 @@
       <c r="F4" s="4"/>
       <c r="G4" s="9"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1076,13 +1231,15 @@
       <c r="F5" s="4"/>
       <c r="G5" s="9"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -1091,13 +1248,15 @@
       <c r="F6" s="4"/>
       <c r="G6" s="9"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -1106,13 +1265,15 @@
       <c r="F7" s="4"/>
       <c r="G7" s="9"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -1121,13 +1282,15 @@
       <c r="F8" s="4"/>
       <c r="G8" s="9"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -1136,30 +1299,77 @@
       <c r="F9" s="4"/>
       <c r="G9" s="9"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1168,7 +1378,7 @@
     <protectedRange password="C66D" sqref="F4:F9" name="区域1_13_10"/>
   </protectedRanges>
   <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A1:O1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1177,30 +1387,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.25">
-      <c r="A1" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-    </row>
-    <row r="2" spans="1:12" ht="14.25">
+    <row r="1" spans="1:14" ht="14.25">
+      <c r="A1" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+    </row>
+    <row r="2" spans="1:14" ht="14.25">
       <c r="A2" s="16" t="s">
         <v>10</v>
       </c>
@@ -1211,13 +1423,15 @@
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1243,19 +1457,25 @@
         <v>3</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:14">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -1264,12 +1484,14 @@
       <c r="F4" s="4"/>
       <c r="G4" s="9"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="14"/>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="14"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1278,12 +1500,14 @@
       <c r="F5" s="4"/>
       <c r="G5" s="9"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="15"/>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="15"/>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -1292,12 +1516,14 @@
       <c r="F6" s="4"/>
       <c r="G6" s="9"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="15"/>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="15"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -1306,12 +1532,14 @@
       <c r="F7" s="4"/>
       <c r="G7" s="9"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="15"/>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="15"/>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -1320,12 +1548,14 @@
       <c r="F8" s="4"/>
       <c r="G8" s="9"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="15"/>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="15"/>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -1334,12 +1564,14 @@
       <c r="F9" s="4"/>
       <c r="G9" s="9"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="15"/>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="15"/>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1348,12 +1580,14 @@
       <c r="F10" s="4"/>
       <c r="G10" s="9"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="15"/>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="15"/>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1362,12 +1596,14 @@
       <c r="F11" s="4"/>
       <c r="G11" s="9"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="15"/>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="15"/>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1376,34 +1612,136 @@
       <c r="F12" s="4"/>
       <c r="G12" s="9"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="15"/>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="15"/>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1412,7 +1750,7 @@
     <protectedRange password="C66D" sqref="F4:F12" name="区域1_13_10"/>
   </protectedRanges>
   <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A1:M1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ems/document/仓库报表/修改后入-领-借报表.xlsx
+++ b/ems/document/仓库报表/修改后入-领-借报表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="13815" windowHeight="7395"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="13815" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="入库明细" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
   <si>
     <t>序号</t>
   </si>
@@ -292,6 +292,10 @@
   </si>
   <si>
     <t>入库类型:是采购入库，还是调拨入库，还是拆回入库之类的，还有借用返还(包括领用里的借用返还)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆回入库</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -860,7 +864,7 @@
       <pane xSplit="7" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -959,7 +963,9 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="10"/>
+      <c r="K4" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="L4" s="10"/>
       <c r="M4" s="1"/>
     </row>

--- a/ems/document/仓库报表/修改后入-领-借报表.xlsx
+++ b/ems/document/仓库报表/修改后入-领-借报表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="13815" windowHeight="7365"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="13815" windowHeight="7335"/>
   </bookViews>
   <sheets>
     <sheet name="入库明细" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="63">
   <si>
     <t>序号</t>
   </si>
@@ -291,11 +291,19 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>入库类型:是采购入库，还是调拨入库，还是拆回入库之类的，还有借用返还(包括领用里的借用返还)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>拆回入库</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>借用返还和领用返还的设备都是什么项目出去，什么项目回来</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆回入库的话，就是点位是什么项目，就是从什么项目回来</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库类型:是采购入库，还是调拨入库，还是拆回入库之类的，还有借用返还，领用返还</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -864,7 +872,7 @@
       <pane xSplit="7" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
+      <selection pane="bottomRight" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -964,7 +972,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L4" s="10"/>
       <c r="M4" s="1"/>
@@ -1092,13 +1100,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" s="11" customFormat="1"/>
-    <row r="28" spans="1:1" s="11" customFormat="1"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="11" customFormat="1">
+      <c r="B18" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" s="11" customFormat="1"/>
   </sheetData>
   <protectedRanges>
     <protectedRange password="C66D" sqref="G4:G11" name="区域1_13_7"/>

--- a/ems/document/仓库报表/修改后入-领-借报表.xlsx
+++ b/ems/document/仓库报表/修改后入-领-借报表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="13815" windowHeight="7335"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="13815" windowHeight="7335" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="入库明细" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="65">
   <si>
     <t>序号</t>
   </si>
@@ -283,10 +283,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>select a.id as installout_id,'' as project_id,a.str_in_date as returndate,b.ecode,a.str_out_id,c.name as workunit_name,'' as pole_name,'' as customer_id,'调拨' as installouttype</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>如果没选项目的话，在报表里在显示加一例，哪个项目(做不到，采购入库，调拨，拆回入库是没有项目的)</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -304,6 +300,18 @@
   </si>
   <si>
     <t>入库类型:是采购入库，还是调拨入库，还是拆回入库之类的，还有借用返还，领用返还</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>领用类型</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>select a.id as installout_id,'' as project_id,a.str_in_date as returndate,b.ecode,a.str_out_id,c.name as workunit_name,'' as pole_name,'' as customer_id,'调拨领用' as installouttype</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>借用类型</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -491,7 +499,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -552,6 +560,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -868,7 +879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -884,21 +895,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
     </row>
     <row r="2" spans="1:13" ht="14.25">
       <c r="A2" s="16" t="s">
@@ -972,7 +983,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L4" s="10"/>
       <c r="M4" s="1"/>
@@ -1084,7 +1095,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1102,17 +1113,17 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="11" customFormat="1">
       <c r="B18" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="B19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:2" s="11" customFormat="1"/>
@@ -1133,34 +1144,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:16" ht="14.25">
+      <c r="A1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-    </row>
-    <row r="2" spans="1:15" ht="14.25">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+    </row>
+    <row r="2" spans="1:16" ht="14.25">
       <c r="A2" s="16" t="s">
         <v>10</v>
       </c>
@@ -1176,10 +1188,295 @@
       <c r="K2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="17"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <protectedRanges>
+    <protectedRange password="C66D" sqref="G4:G9" name="区域1_13_7"/>
+    <protectedRange password="C66D" sqref="F4:F9" name="区域1_13_10"/>
+  </protectedRanges>
+  <mergeCells count="1">
+    <mergeCell ref="A1:P1"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="14.25">
+      <c r="A1" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+    </row>
+    <row r="2" spans="1:15" ht="14.25">
+      <c r="A2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="21"/>
       <c r="M2" s="13"/>
       <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="5" t="s">
@@ -1213,16 +1510,16 @@
         <v>31</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>29</v>
+        <v>64</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>4</v>
@@ -1242,8 +1539,8 @@
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="14"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="6"/>
@@ -1259,8 +1556,8 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="15"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="6"/>
@@ -1276,8 +1573,8 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="15"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="6"/>
@@ -1293,8 +1590,8 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="15"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="6"/>
@@ -1310,8 +1607,8 @@
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="6"/>
@@ -1327,274 +1624,10 @@
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <protectedRanges>
-    <protectedRange password="C66D" sqref="G4:G9" name="区域1_13_7"/>
-    <protectedRange password="C66D" sqref="F4:F9" name="区域1_13_10"/>
-  </protectedRanges>
-  <mergeCells count="1">
-    <mergeCell ref="A1:O1"/>
-  </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N44"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:A34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:14" ht="14.25">
-      <c r="A1" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-    </row>
-    <row r="2" spans="1:14" ht="14.25">
-      <c r="A2" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="14"/>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="15"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="15"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="15"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="15"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="15"/>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="N9" s="1"/>
+      <c r="O9" s="15"/>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1607,10 +1640,11 @@
       <c r="J10" s="3"/>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="15"/>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="M10" s="12"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="15"/>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1623,10 +1657,11 @@
       <c r="J11" s="3"/>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="15"/>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="M11" s="12"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="15"/>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1639,20 +1674,21 @@
       <c r="J12" s="3"/>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="15"/>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="M12" s="12"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="15"/>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1773,7 +1809,7 @@
     <protectedRange password="C66D" sqref="F4:F12" name="区域1_13_10"/>
   </protectedRanges>
   <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A1:N1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ems/document/仓库报表/修改后入-领-借报表.xlsx
+++ b/ems/document/仓库报表/修改后入-领-借报表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="13815" windowHeight="7335" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="255" windowWidth="13815" windowHeight="7305"/>
   </bookViews>
   <sheets>
     <sheet name="入库明细" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>序号</t>
   </si>
@@ -206,14 +206,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>别忘记加上借用中领用掉的设备，还有仓库之间的领用要算在里面吗</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>同理仓库间的领用是不能算到项目里面的</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>同理仓库之间的借用数据没有算在里面</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -266,53 +258,142 @@
     <t>where  a.adjusttype='borrow' --and a.status='over'</t>
   </si>
   <si>
+    <t>select a.id as borrow_id,a.project_id,a.operatedate,b.ecode,a.store_id,c.name as workunit_name,decode(b.isreturn,'Y','已归还','未归还') as status,'领' as installouttype</t>
+  </si>
+  <si>
+    <t>select a.id as borrow_id,a.project_id,a.operatedate,b.ecode,a.store_id,c.name as workunit_name,decode(b.isreturn,'Y','已归还','未归还') as status,'借' as installouttype</t>
+  </si>
+  <si>
+    <t>入库仓库</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果没选项目的话，在报表里在显示加一例，哪个项目(做不到，采购入库，调拨，拆回入库是没有项目的)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆回入库</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>借用返还和领用返还的设备都是什么项目出去，什么项目回来</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆回入库的话，就是点位是什么项目，就是从什么项目回来</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>领用类型</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>select a.id as installout_id,'' as project_id,a.str_in_date as returndate,b.ecode,a.str_out_id,c.name as workunit_name,'' as pole_name,'' as customer_id,'调拨领用' as installouttype</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>借用类型</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>and to_char(a.str_out_date,'yyyy-mm-dd')&gt;='2015-07-10'  and to_char(a.str_out_date,'yyyy-mm-dd')&lt;='2015-07-18'</t>
-  </si>
-  <si>
-    <t>select a.id as borrow_id,a.project_id,a.operatedate,b.ecode,a.store_id,c.name as workunit_name,decode(b.isreturn,'Y','已归还','未归还') as status,'领' as installouttype</t>
-  </si>
-  <si>
-    <t>select a.id as borrow_id,a.project_id,a.operatedate,b.ecode,a.store_id,c.name as workunit_name,decode(b.isreturn,'Y','已归还','未归还') as status,'借' as installouttype</t>
-  </si>
-  <si>
-    <t>入库仓库</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果没选项目的话，在报表里在显示加一例，哪个项目(做不到，采购入库，调拨，拆回入库是没有项目的)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>拆回入库</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>借用返还和领用返还的设备都是什么项目出去，什么项目回来</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>拆回入库的话，就是点位是什么项目，就是从什么项目回来</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>入库类型:是采购入库，还是调拨入库，还是拆回入库之类的，还有借用返还，领用返还</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>领用类型</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>select a.id as installout_id,'' as project_id,a.str_in_date as returndate,b.ecode,a.str_out_id,c.name as workunit_name,'' as pole_name,'' as customer_id,'调拨领用' as installouttype</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>借用类型</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>还要加上调拨 借用归还的设备，对于本仓库是领用出去的</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库类型:是采购入库，还是调拨入库(借用调拨入库，领用调拨入库，调拨返回入库)，还是拆回入库之类的，还有借用返还（包括领用返还，借用返还），修复入库</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    select a.id as instore_id,d.project_id,a.store_id,to_char(a.operatedate,'yyyy-mm-dd') operatedate,b.ecode,'新品入库' as instoretype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    from ems_instore a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    inner join ems_instorelist b on a.id=b.instore_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    inner join ems_orderlist c on b.orderlist_id=c.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    inner join ems_order d on c.order_id=d.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    where   to_char(a.operatedate,'yyyy-mm-dd') &gt;='2015-07-10'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    and to_char(a.operatedate,'yyyy-mm-dd') &lt;='2015-07-22'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    union all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    select a.id as instore_id,a.project_id,a.str_in_id as store_id,to_char(a.str_in_date,'yyyy-mm-dd') operatedate,b.ecode,'调拨入库' as instoretype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    from ems_adjust a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    inner join ems_adjustlist b on a.id=b.adjust_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    where   to_char(a.str_in_date,'yyyy-mm-dd') &gt;='2015-07-10'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    and to_char(a.str_in_date,'yyyy-mm-dd') &lt;='2015-07-22'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    select a.id as instore_id,b.project_id,a.store_id,to_char(a.operatedate,'yyyy-mm-dd') operatedate,b.ecode,'借用归还' as instoretype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    from ems_installin a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    inner join ems_installinlist b on a.id=b.installin_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    where  b.installinlisttype='installout' and to_char(a.operatedate,'yyyy-mm-dd') &gt;='2015-07-10'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    select a.id as instore_id,b.project_id,a.store_id,to_char(a.operatedate,'yyyy-mm-dd') operatedate,b.ecode,'拆回入库' as instoretype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    where  b.installinlisttype='takedown' and to_char(a.operatedate,'yyyy-mm-dd') &gt;='2015-07-10'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    select a.id as instore_id,a.project_id,a.store_id,to_char(b.returndate,'yyyy-mm-dd') operatedate,b.ecode,'借用归还' as instoretype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    from ems_borrow a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    inner join ems_borrowlist b on a.id=b.borrow_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    where  b.isreturn='Y' and to_char(b.returndate,'yyyy-mm-dd') &gt;='2015-07-10'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    and to_char(b.returndate,'yyyy-mm-dd') &lt;='2015-07-22'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    select a.id as instore_id,'修复入库' project_id,a.str_in_id as store_id,to_char(a.str_in_date,'yyyy-mm-dd') operatedate,a.ecode,'修复入库' as instoretype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    from ems_repair a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    where  a.status='over' and to_char(a.str_in_date,'yyyy-mm-dd') &gt;='2015-07-10'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
   </si>
 </sst>
 </file>
@@ -877,13 +958,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomRight" activeCell="A21" sqref="A21:A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -956,10 +1037,10 @@
         <v>3</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>18</v>
@@ -983,7 +1064,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L4" s="10"/>
       <c r="M4" s="1"/>
@@ -1095,7 +1176,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="19" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1113,20 +1194,204 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="11" customFormat="1">
       <c r="B18" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="B19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" s="11" customFormat="1"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" s="11" customFormat="1">
+      <c r="A28" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <protectedRanges>
     <protectedRange password="C66D" sqref="G4:G11" name="区域1_13_7"/>
@@ -1147,7 +1412,7 @@
   <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1229,7 +1494,7 @@
         <v>23</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>28</v>
@@ -1374,13 +1639,11 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="19" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="19" t="s">
-        <v>34</v>
-      </c>
+      <c r="A17" s="19"/>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
@@ -1389,32 +1652,32 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1434,8 +1697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1513,7 +1776,7 @@
         <v>24</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M3" s="8" t="s">
         <v>8</v>
@@ -1705,102 +1968,102 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
